--- a/data/new_data_raw_63_.xlsx
+++ b/data/new_data_raw_63_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trento Calcio 1921</t>
+          <t>Ipswich Town U21</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vicenza</t>
+          <t>Bristol City U21</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>ERT</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>ERT</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19-12-23 | Profesyonel Gelişim Ligi | Stat: Ipswich Town Training Centre</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(İY 3 - 1)</t>
+          <t>MAÇ SONUCU 05976 MBS 3</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17-12-23 | Serie C | 18. Hafta | Stat: Stadio Briamasco (1700)</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAÇ SONUCU 19129 MBS 3</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.95</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ÇIFTE ŞANS 05997 MBS 3</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1-X</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ÇIFTE ŞANS 19131 MBS 3</t>
+          <t>1.32</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1-X</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>X-2</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.30</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>X-2</t>
+          <t>2,5 ALT/ÜST 43890 MBS 3</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,5 ALT/ÜST 19140 MBS 3</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.07</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>3,5 ALT/ÜST 05999 MBS 3</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1,5 ALT/ÜST 19139 MBS 3</t>
+          <t>1.94</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.41</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>1. YARI 1,5 ALT/ÜST 06186 MBS 3</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3,5 ALT/ÜST 19141 MBS 3</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.57</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>1. YARI ÇIFTE ŞANS 06175 MBS 3</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>1-X</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1. YARI 1,5 ALT/ÜST 19152 MBS 3</t>
+          <t>1.21</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>X-2</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.19</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1. YARI 0,5 ALT/ÜST 19151 MBS 3</t>
+          <t>1. YARI SONUCU 06172 MBS 3</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. YARI 2,5 ALT/ÜST 19153 MBS 3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>2.41</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2. YARI SONUCU 06199 MBS 3</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. YARI ÇIFTE ŞANS 19150 MBS 3</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1-X</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>TEK/ÇIFT 06282 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>X-2</t>
+          <t>Tek</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.63</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1. YARI SONUCU 19149 MBS 3</t>
+          <t>Çift</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.63</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>KARŞILIKLI GOL 06012 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.06</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2. YARI SONUCU 19154 MBS 3</t>
+          <t>HND. MS (0:1) 05998 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>4.06</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.35</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TEK/ÇIFT 19160 MBS 3</t>
+          <t>HND. MS (1:0) 43881 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tek</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.34</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Çift</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TOPLAM GOL ARALIĞI 19148 MBS 3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 06313 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.93</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>1.41</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>12+</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KARŞILIKLI GOL 19142 MBS 3</t>
+          <t>EV SAHIBI 1,5 A/Ü 06278 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.97</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.39</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HND. MS (1:0) 19133 MBS 3</t>
+          <t>DEPLASMAN 1,5 A/Ü 06279 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.01</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1. YARI KARŞILIKLI GOL 06306 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MS VE 4,5 ALT/ÜST 13511 MBS 3</t>
+          <t>2.34</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 06310 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>1.90</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -1494,787 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>X ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>14.30</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>MS VE 2,5 ALT/ÜST 19137 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>1 ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>X ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2 ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>1 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>X ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>19.30</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>MS VE 1,5 ALT/ÜST 19135 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>1 ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>X ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2 ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>X ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>MS VE 3,5 ALT/ÜST 19138 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>1 ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>X ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2 ve Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>1 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>22.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>X ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>19.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 19167 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
           <t>1.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>EV SAHIBI 0,5 A/Ü 19155 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>EN ÇOK GOL OLACAK YARI 19157 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>1. Yarı</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Eşit</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2. Yarı</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>DEPLASMAN 1,5 A/Ü 19156 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>1. YARI KARŞILIKLI GOL 19165 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 19166 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2.65</t>
         </is>
       </c>
     </row>
